--- a/Stimuli.xlsx
+++ b/Stimuli.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
